--- a/Invesco/Invesco-MSCI-World.xlsx
+++ b/Invesco/Invesco-MSCI-World.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{0128D462-482E-40FC-BDD9-3BC2319AD459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76F5A924-F8D6-4167-B485-4CC683079EF7}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="13_ncr:1_{0128D462-482E-40FC-BDD9-3BC2319AD459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{966B30F2-5D5F-42FE-89EF-B34277D879E0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>MSCI World</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Gross index ($)</t>
   </si>
   <si>
-    <t>IWDA ($)</t>
-  </si>
-  <si>
     <t>Diff</t>
   </si>
   <si>
@@ -70,25 +67,16 @@
     <t>TER</t>
   </si>
   <si>
-    <t>VT lek</t>
-  </si>
-  <si>
     <t>Data spreadsheet created on 6 Jul 21 06:51 UTC</t>
   </si>
   <si>
-    <t>Invesco beter dan IWDA</t>
+    <t>Let op: Fiscaal jaar loopt anders als boekjaar</t>
   </si>
   <si>
-    <t>Invesco minder dan met juiste lek</t>
+    <t>Diff na kosten</t>
   </si>
   <si>
-    <t>│ │ ├─ USA</t>
-  </si>
-  <si>
-    <t>│ │ ├─ Europe</t>
-  </si>
-  <si>
-    <t>│ │ ├─ Pacific</t>
+    <t>Diff na kosten te groot voor dividendlek, zou kleiner moeten zijn</t>
   </si>
 </sst>
 </file>
@@ -1177,11 +1165,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD14F261-F35D-4366-9985-5F1DFE201882}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1191,7 +1177,10 @@
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="G2" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1213,7 +1202,7 @@
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="15">
         <f>Performance!G10</f>
@@ -1258,7 +1247,7 @@
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="15">
         <f>B5-B4</f>
@@ -1295,7 +1284,7 @@
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -1312,7 +1301,7 @@
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -1332,180 +1321,19 @@
         <f>AVERAGE(D9:F9)</f>
         <v>2.4877929142454358E-3</v>
       </c>
+      <c r="I9" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="A10" s="10"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="15">
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="15">
-        <v>7.7299999999999994E-2</v>
-      </c>
-      <c r="C13" s="15">
-        <v>0.22450000000000001</v>
-      </c>
-      <c r="D13" s="15">
-        <v>-8.6499999999999994E-2</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0.27760000000000001</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0.1595</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="15">
-        <f>B5-B13</f>
-        <v>4.2000000000000093E-3</v>
-      </c>
-      <c r="C14" s="15">
-        <f>C5-C13</f>
-        <v>6.1999999999999833E-3</v>
-      </c>
-      <c r="D14" s="15">
-        <f>D5-D13</f>
-        <v>4.4999999999999901E-3</v>
-      </c>
-      <c r="E14" s="15">
-        <f>E5-E13</f>
-        <v>6.3999999999999613E-3</v>
-      </c>
-      <c r="F14" s="15">
-        <f>F5-F13</f>
-        <v>5.5000000000000049E-3</v>
-      </c>
-      <c r="G14" s="15">
-        <f>AVERAGE(D14:F14)</f>
-        <v>5.4666666666666518E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:6" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="15">
-        <f>G14-G6</f>
-        <v>1.0788737524212166E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="15">
-        <f>(F8+G10)-G6</f>
-        <v>-1.2877929142454353E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="15">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="15">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="E26" s="15">
-        <v>1E-3</v>
-      </c>
-      <c r="F26" s="15">
-        <f>(D26*E26)/$D$30</f>
-        <v>6.9844559585492227E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="15">
-        <v>0.189</v>
-      </c>
-      <c r="E27" s="15">
-        <v>1E-3</v>
-      </c>
-      <c r="F27" s="15">
-        <f>(D27*E27)/$D$30</f>
-        <v>1.9585492227979276E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="15">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="E28" s="15">
-        <v>1.5E-3</v>
-      </c>
-      <c r="F28" s="15">
-        <f>(D28*E28)/$D$30</f>
-        <v>1.5854922279792748E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D29" s="15"/>
-    </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D30" s="14">
-        <f>SUM(D26:D29)</f>
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="F30" s="15">
-        <f>SUM(F26:F29)</f>
-        <v>1.0528497409326425E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="G10" s="15"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1541,7 +1369,7 @@
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">

--- a/Invesco/Invesco-MSCI-World.xlsx
+++ b/Invesco/Invesco-MSCI-World.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="151" documentId="13_ncr:1_{0128D462-482E-40FC-BDD9-3BC2319AD459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{966B30F2-5D5F-42FE-89EF-B34277D879E0}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="13_ncr:1_{0128D462-482E-40FC-BDD9-3BC2319AD459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{205B6335-A462-406E-B7BA-892A466F5B2D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>MSCI World</t>
   </si>
@@ -58,18 +58,12 @@
     <t>Diff</t>
   </si>
   <si>
-    <t>AVG TD-3</t>
-  </si>
-  <si>
     <t>Invesco MSCI World</t>
   </si>
   <si>
     <t>TER</t>
   </si>
   <si>
-    <t>Data spreadsheet created on 6 Jul 21 06:51 UTC</t>
-  </si>
-  <si>
     <t>Let op: Fiscaal jaar loopt anders als boekjaar</t>
   </si>
   <si>
@@ -77,6 +71,18 @@
   </si>
   <si>
     <t>Diff na kosten te groot voor dividendlek, zou kleiner moeten zijn</t>
+  </si>
+  <si>
+    <t>$3.902.432.498,74</t>
+  </si>
+  <si>
+    <t>$3.902.433.425,73</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>Het is wel beter sinds 2018, of ging de TER toen omlaag?</t>
   </si>
 </sst>
 </file>
@@ -642,7 +648,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -654,25 +660,32 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1165,7 +1178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD14F261-F35D-4366-9985-5F1DFE201882}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1174,165 +1187,199 @@
     <col min="1" max="1" width="31.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G2" s="10" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="I2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
+        <v>2016</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2017</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2018</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2019</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G3" s="8">
+        <v>2021</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="10">
-        <v>2016</v>
-      </c>
-      <c r="C3" s="10">
-        <v>2017</v>
-      </c>
-      <c r="D3" s="10">
-        <v>2018</v>
-      </c>
-      <c r="E3" s="10">
-        <v>2019</v>
-      </c>
-      <c r="F3" s="10">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="15">
+      <c r="B4" s="10">
+        <f>Performance!G11</f>
+        <v>7.5140983218559262E-2</v>
+      </c>
+      <c r="C4" s="12">
         <f>Performance!G10</f>
-        <v>7.5140983218559262E-2</v>
-      </c>
-      <c r="C4" s="19">
+        <v>0.22412749348054314</v>
+      </c>
+      <c r="D4" s="10">
         <f>Performance!G9</f>
-        <v>0.22412749348054314</v>
-      </c>
-      <c r="D4" s="15">
+        <v>-8.6303878322788297E-2</v>
+      </c>
+      <c r="E4" s="10">
         <f>Performance!G8</f>
-        <v>-8.6303878322788297E-2</v>
-      </c>
-      <c r="E4" s="15">
+        <v>0.27917737497303208</v>
+      </c>
+      <c r="F4" s="10">
         <f>Performance!G7</f>
-        <v>0.27917737497303208</v>
-      </c>
-      <c r="F4" s="15">
+        <v>0.16096312460701989</v>
+      </c>
+      <c r="G4" s="10">
         <f>Performance!G6</f>
-        <v>0.16096312460701989</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+        <v>0.21934845882119067</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="10">
         <v>8.1500000000000003E-2</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="10">
         <v>0.23069999999999999</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="10">
         <v>-8.2000000000000003E-2</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="10">
         <v>0.28399999999999997</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="10">
         <v>0.16500000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="G5" s="10">
+        <v>0.2235</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="10">
         <f>B5-B4</f>
         <v>6.3590167814407406E-3</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="10">
         <f>C5-C4</f>
         <v>6.5725065194568444E-3</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="10">
         <f>D5-D4</f>
         <v>4.3038783227882932E-3</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="10">
         <f>E5-E4</f>
         <v>4.8226250269678972E-3</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="10">
         <f>F5-F4</f>
         <v>4.036875392980116E-3</v>
       </c>
-      <c r="G6" s="15">
-        <f>AVERAGE(D6:F6)</f>
-        <v>4.3877929142454352E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15">
+      <c r="G6" s="10">
+        <f>G5-G4</f>
+        <v>4.151541178809337E-3</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10">
+        <f>AVERAGE(D6:G6)</f>
+        <v>4.3287299803864109E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10">
         <v>1.9E-3</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="10">
         <v>1.9E-3</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="10">
         <v>1.9E-3</v>
       </c>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15">
+      <c r="G8" s="10">
+        <v>1.9E-3</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10">
         <f>D6-D8</f>
         <v>2.4038783227882934E-3</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="10">
         <f>E6-E8</f>
         <v>2.9226250269678974E-3</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="10">
         <f>F6-F8</f>
         <v>2.1368753929801162E-3</v>
       </c>
-      <c r="G9" s="15">
-        <f>AVERAGE(D9:F9)</f>
-        <v>2.4877929142454358E-3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="G9" s="10">
+        <f>G6-G8</f>
+        <v>2.2515411788093373E-3</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10">
+        <f>AVERAGE(D9:G9)</f>
+        <v>2.4287299803864111E-3</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="K10" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1341,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1356,11 +1403,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -1368,169 +1415,192 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A3" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <v>44196</v>
-      </c>
-      <c r="B6" s="7">
-        <v>8008.4679999999998</v>
-      </c>
-      <c r="C6" s="11">
-        <v>2694064736.1900001</v>
-      </c>
-      <c r="D6" s="12">
-        <v>78.472399999999993</v>
-      </c>
-      <c r="E6" s="8">
-        <v>34331383</v>
-      </c>
-      <c r="F6" s="13">
-        <v>2694066019.3291998</v>
-      </c>
-      <c r="G6" s="14">
+        <v>44561</v>
+      </c>
+      <c r="B6" s="19">
+        <v>9755.6939999999995</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="15">
+        <v>95.685199999999995</v>
+      </c>
+      <c r="E6" s="16">
+        <v>40784086</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="9">
         <f>(D6-D7)/D7</f>
-        <v>0.16096312460701989</v>
-      </c>
+        <v>0.21934845882119067</v>
+      </c>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <v>43830</v>
-      </c>
-      <c r="B7" s="7">
-        <v>6909.66</v>
-      </c>
-      <c r="C7" s="11">
-        <v>1279613865.51</v>
-      </c>
-      <c r="D7" s="12">
-        <v>67.592500000000001</v>
-      </c>
-      <c r="E7" s="8">
-        <v>18931295</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1279613557.2874999</v>
-      </c>
-      <c r="G7" s="14">
+        <v>44196</v>
+      </c>
+      <c r="B7" s="14">
+        <v>8008.4679999999998</v>
+      </c>
+      <c r="C7" s="15">
+        <v>2694064736.1900001</v>
+      </c>
+      <c r="D7" s="15">
+        <v>78.472399999999993</v>
+      </c>
+      <c r="E7" s="16">
+        <v>34331383</v>
+      </c>
+      <c r="F7" s="15">
+        <v>2694066019.3291998</v>
+      </c>
+      <c r="G7" s="9">
         <f>(D7-D8)/D8</f>
-        <v>0.27917737497303208</v>
+        <v>0.16096312460701989</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>43465</v>
-      </c>
-      <c r="B8" s="7">
-        <v>5412.1220000000003</v>
-      </c>
-      <c r="C8" s="11">
-        <v>673588788.29999995</v>
-      </c>
-      <c r="D8" s="12">
-        <v>52.840600000000002</v>
-      </c>
-      <c r="E8" s="8">
-        <v>12747566</v>
-      </c>
-      <c r="F8" s="13">
-        <v>673589035.97959995</v>
-      </c>
-      <c r="G8" s="14">
+        <v>43830</v>
+      </c>
+      <c r="B8" s="14">
+        <v>6909.66</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1279613865.51</v>
+      </c>
+      <c r="D8" s="15">
+        <v>67.592500000000001</v>
+      </c>
+      <c r="E8" s="16">
+        <v>18931295</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1279613557.2874999</v>
+      </c>
+      <c r="G8" s="9">
         <f>(D8-D9)/D9</f>
-        <v>-8.6303878322788297E-2</v>
+        <v>0.27917737497303208</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
+        <v>43465</v>
+      </c>
+      <c r="B9" s="14">
+        <v>5412.1220000000003</v>
+      </c>
+      <c r="C9" s="15">
+        <v>673588788.29999995</v>
+      </c>
+      <c r="D9" s="15">
+        <v>52.840600000000002</v>
+      </c>
+      <c r="E9" s="16">
+        <v>12747566</v>
+      </c>
+      <c r="F9" s="15">
+        <v>673589035.97959995</v>
+      </c>
+      <c r="G9" s="9">
+        <f>(D9-D10)/D10</f>
+        <v>-8.6303878322788297E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>43098</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B10" s="14">
         <v>5928.5910000000003</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C10" s="15">
         <v>851963517.98000002</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D10" s="15">
         <v>57.831699999999998</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E10" s="16">
         <v>14731762</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F10" s="15">
         <v>851962840.45539999</v>
       </c>
-      <c r="G9" s="14">
-        <f>(D9-D10)/D10</f>
+      <c r="G10" s="9">
+        <f>(D10-D11)/D11</f>
         <v>0.22412749348054314</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
         <v>42734</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B11" s="14">
         <v>4843.607</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C11" s="17">
         <v>582436406</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D11" s="17">
         <v>47.243200000000002</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E11" s="18">
         <v>12328481</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F11" s="17">
         <v>582436893.57920003</v>
       </c>
-      <c r="G10" s="14">
-        <f>(D10-D11)/D11</f>
+      <c r="G11" s="9">
+        <f>(D11-D12)/D12</f>
         <v>7.5140983218559262E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
         <v>42369</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B12" s="14">
         <v>4505.241</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C12" s="17">
         <v>414369224.80000001</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D12" s="17">
         <v>43.941400000000002</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E12" s="18">
         <v>9430044</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F12" s="17">
         <v>414369335.42159998</v>
       </c>
     </row>

--- a/Invesco/Invesco-MSCI-World.xlsx
+++ b/Invesco/Invesco-MSCI-World.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="176" documentId="13_ncr:1_{0128D462-482E-40FC-BDD9-3BC2319AD459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{205B6335-A462-406E-B7BA-892A466F5B2D}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="13_ncr:1_{0128D462-482E-40FC-BDD9-3BC2319AD459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A19B59EC-911D-4DE1-ADDB-417184AD1470}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="2" r:id="rId1"/>
     <sheet name="Performance" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Performance!$A$5:$F$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Performance!$A$5:$B$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>MSCI World</t>
   </si>
@@ -37,19 +37,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>AUM</t>
-  </si>
-  <si>
     <t>NAV</t>
-  </si>
-  <si>
-    <t>Outstanding Shares</t>
-  </si>
-  <si>
-    <t>MCAP</t>
   </si>
   <si>
     <t>Gross index ($)</t>
@@ -73,16 +61,16 @@
     <t>Diff na kosten te groot voor dividendlek, zou kleiner moeten zijn</t>
   </si>
   <si>
-    <t>$3.902.432.498,74</t>
-  </si>
-  <si>
-    <t>$3.902.433.425,73</t>
-  </si>
-  <si>
     <t>AVG</t>
   </si>
   <si>
     <t>Het is wel beter sinds 2018, of ging de TER toen omlaag?</t>
+  </si>
+  <si>
+    <t>Perf</t>
+  </si>
+  <si>
+    <t>SPDR SWRD</t>
   </si>
 </sst>
 </file>
@@ -234,38 +222,34 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="21"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,12 +431,6 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,45 +626,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -821,6 +800,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1178,207 +1161,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD14F261-F35D-4366-9985-5F1DFE201882}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="I2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="8">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
         <v>2016</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="2">
         <v>2017</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="2">
         <v>2018</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="2">
         <v>2019</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="2">
         <v>2020</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="2">
         <v>2021</v>
       </c>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="10">
-        <f>Performance!G11</f>
+      <c r="H3" s="2">
+        <v>2022</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <f>Performance!C12</f>
         <v>7.5140983218559262E-2</v>
       </c>
-      <c r="C4" s="12">
-        <f>Performance!G10</f>
+      <c r="C4" s="4">
+        <f>Performance!C11</f>
         <v>0.22412749348054314</v>
       </c>
-      <c r="D4" s="10">
-        <f>Performance!G9</f>
+      <c r="D4" s="3">
+        <f>Performance!C10</f>
         <v>-8.6303878322788297E-2</v>
       </c>
-      <c r="E4" s="10">
-        <f>Performance!G8</f>
+      <c r="E4" s="3">
+        <f>Performance!C9</f>
         <v>0.27917737497303208</v>
       </c>
-      <c r="F4" s="10">
-        <f>Performance!G7</f>
+      <c r="F4" s="3">
+        <f>Performance!C8</f>
         <v>0.16096312460701989</v>
       </c>
-      <c r="G4" s="10">
-        <f>Performance!G6</f>
+      <c r="G4" s="3">
+        <f>Performance!C7</f>
         <v>0.21934845882119067</v>
       </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="H4" s="3">
+        <f>Performance!C6</f>
+        <v>-0.18019401119504377</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
         <v>8.1500000000000003E-2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="3">
         <v>0.23069999999999999</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="3">
         <v>-8.2000000000000003E-2</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="3">
         <v>0.28399999999999997</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="3">
         <v>0.16500000000000001</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="3">
         <v>0.2235</v>
       </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="10">
-        <f>B5-B4</f>
+      <c r="H5" s="3">
+        <v>-0.17730000000000001</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <f t="shared" ref="B6:H6" si="0">B5-B4</f>
         <v>6.3590167814407406E-3</v>
       </c>
-      <c r="C6" s="10">
-        <f>C5-C4</f>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
         <v>6.5725065194568444E-3</v>
       </c>
-      <c r="D6" s="10">
-        <f>D5-D4</f>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
         <v>4.3038783227882932E-3</v>
       </c>
-      <c r="E6" s="10">
-        <f>E5-E4</f>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
         <v>4.8226250269678972E-3</v>
       </c>
-      <c r="F6" s="10">
-        <f>F5-F4</f>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
         <v>4.036875392980116E-3</v>
       </c>
-      <c r="G6" s="10">
-        <f>G5-G4</f>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
         <v>4.151541178809337E-3</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10">
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8940111950437608E-3</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
         <f>AVERAGE(D6:G6)</f>
         <v>4.3287299803864109E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10">
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
         <v>1.9E-3</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="3">
         <v>1.9E-3</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="3">
         <v>1.9E-3</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="3">
         <v>1.9E-3</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
         <f>D6-D8</f>
         <v>2.4038783227882934E-3</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="3">
         <f>E6-E8</f>
         <v>2.9226250269678974E-3</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="3">
         <f>F6-F8</f>
         <v>2.1368753929801162E-3</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="3">
         <f>G6-G8</f>
         <v>2.2515411788093373E-3</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
         <f>AVERAGE(D9:G9)</f>
         <v>2.4287299803864111E-3</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="K10" s="3" t="s">
-        <v>17</v>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18">
+        <v>0.21959999999999999</v>
+      </c>
+      <c r="H11" s="18">
+        <v>-0.17860000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18">
+        <f t="shared" ref="G12:H12" si="1">G4-G11</f>
+        <v>-2.5154117880932247E-4</v>
+      </c>
+      <c r="H12" s="18">
+        <f t="shared" si="1"/>
+        <v>-1.5940111950437652E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1388,226 +1417,140 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="17.125" style="3" customWidth="1"/>
-    <col min="4" max="10" width="20.875" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.125" style="3"/>
+    <col min="1" max="1" width="36.125" style="7" customWidth="1"/>
+    <col min="2" max="6" width="20.875" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:4" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="C5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>44925</v>
+      </c>
+      <c r="B6" s="11">
+        <v>78.443299999999994</v>
+      </c>
+      <c r="C6" s="12">
+        <f t="shared" ref="C6:C12" si="0">(B6-B7)/B7</f>
+        <v>-0.18019401119504377</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
         <v>44561</v>
       </c>
-      <c r="B6" s="19">
-        <v>9755.6939999999995</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="15">
+      <c r="B7" s="11">
         <v>95.685199999999995</v>
       </c>
-      <c r="E6" s="16">
-        <v>40784086</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="9">
-        <f>(D6-D7)/D7</f>
+      <c r="C7" s="12">
+        <f t="shared" si="0"/>
         <v>0.21934845882119067</v>
       </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
         <v>44196</v>
       </c>
-      <c r="B7" s="14">
-        <v>8008.4679999999998</v>
-      </c>
-      <c r="C7" s="15">
-        <v>2694064736.1900001</v>
-      </c>
-      <c r="D7" s="15">
+      <c r="B8" s="11">
         <v>78.472399999999993</v>
       </c>
-      <c r="E7" s="16">
-        <v>34331383</v>
-      </c>
-      <c r="F7" s="15">
-        <v>2694066019.3291998</v>
-      </c>
-      <c r="G7" s="9">
-        <f>(D7-D8)/D8</f>
+      <c r="C8" s="12">
+        <f t="shared" si="0"/>
         <v>0.16096312460701989</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
         <v>43830</v>
       </c>
-      <c r="B8" s="14">
-        <v>6909.66</v>
-      </c>
-      <c r="C8" s="15">
-        <v>1279613865.51</v>
-      </c>
-      <c r="D8" s="15">
+      <c r="B9" s="11">
         <v>67.592500000000001</v>
       </c>
-      <c r="E8" s="16">
-        <v>18931295</v>
-      </c>
-      <c r="F8" s="15">
-        <v>1279613557.2874999</v>
-      </c>
-      <c r="G8" s="9">
-        <f>(D8-D9)/D9</f>
+      <c r="C9" s="12">
+        <f t="shared" si="0"/>
         <v>0.27917737497303208</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
         <v>43465</v>
       </c>
-      <c r="B9" s="14">
-        <v>5412.1220000000003</v>
-      </c>
-      <c r="C9" s="15">
-        <v>673588788.29999995</v>
-      </c>
-      <c r="D9" s="15">
+      <c r="B10" s="11">
         <v>52.840600000000002</v>
       </c>
-      <c r="E9" s="16">
-        <v>12747566</v>
-      </c>
-      <c r="F9" s="15">
-        <v>673589035.97959995</v>
-      </c>
-      <c r="G9" s="9">
-        <f>(D9-D10)/D10</f>
+      <c r="C10" s="12">
+        <f t="shared" si="0"/>
         <v>-8.6303878322788297E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
         <v>43098</v>
       </c>
-      <c r="B10" s="14">
-        <v>5928.5910000000003</v>
-      </c>
-      <c r="C10" s="15">
-        <v>851963517.98000002</v>
-      </c>
-      <c r="D10" s="15">
+      <c r="B11" s="11">
         <v>57.831699999999998</v>
       </c>
-      <c r="E10" s="16">
-        <v>14731762</v>
-      </c>
-      <c r="F10" s="15">
-        <v>851962840.45539999</v>
-      </c>
-      <c r="G10" s="9">
-        <f>(D10-D11)/D11</f>
+      <c r="C11" s="12">
+        <f t="shared" si="0"/>
         <v>0.22412749348054314</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
         <v>42734</v>
       </c>
-      <c r="B11" s="14">
-        <v>4843.607</v>
-      </c>
-      <c r="C11" s="17">
-        <v>582436406</v>
-      </c>
-      <c r="D11" s="17">
+      <c r="B12" s="13">
         <v>47.243200000000002</v>
       </c>
-      <c r="E11" s="18">
-        <v>12328481</v>
-      </c>
-      <c r="F11" s="17">
-        <v>582436893.57920003</v>
-      </c>
-      <c r="G11" s="9">
-        <f>(D11-D12)/D12</f>
+      <c r="C12" s="12">
+        <f t="shared" si="0"/>
         <v>7.5140983218559262E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="16">
         <v>42369</v>
       </c>
-      <c r="B12" s="14">
-        <v>4505.241</v>
-      </c>
-      <c r="C12" s="17">
-        <v>414369224.80000001</v>
-      </c>
-      <c r="D12" s="17">
+      <c r="B13" s="13">
         <v>43.941400000000002</v>
       </c>
-      <c r="E12" s="18">
-        <v>9430044</v>
-      </c>
-      <c r="F12" s="17">
-        <v>414369335.42159998</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
